--- a/biology/Botanique/Mustamäe_tee/Mustamäe_tee.xlsx
+++ b/biology/Botanique/Mustamäe_tee/Mustamäe_tee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mustam%C3%A4e_tee</t>
+          <t>Mustamäe_tee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La route de Mustamäe (estonien : Mustamäe tee) est une rue de Tallinn en Estonie[1].
+La route de Mustamäe (estonien : Mustamäe tee) est une rue de Tallinn en Estonie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mustam%C3%A4e_tee</t>
+          <t>Mustamäe_tee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La route de Mustamäe est une rue de située dans les arrondissements de Kristiine et Mustamäe. 
 Elle traverse les quartiers de Lilleküla, Kadaka, Sääse et Mustamäe.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mustam%C3%A4e_tee</t>
+          <t>Mustamäe_tee</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
